--- a/mcqtest.xlsx
+++ b/mcqtest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
   <si>
     <t>Ques.no</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>bc</t>
   </si>
 </sst>
 </file>
@@ -365,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -394,7 +388,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -410,7 +404,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -426,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -434,7 +428,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,7 +436,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -450,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +452,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,7 +484,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -514,7 +508,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +516,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,167 +532,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
